--- a/models/model_logistic_regression_v2/predicted_vs_orgiginal_labels.xlsx
+++ b/models/model_logistic_regression_v2/predicted_vs_orgiginal_labels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sample_0004</t>
+          <t>Sample_0009</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -488,14 +488,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sample_0014</t>
+          <t>Sample_0013</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sample_0016</t>
+          <t>Sample_0015</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,11 +536,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sample_0018</t>
+          <t>Sample_0016</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -552,14 +552,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sample_0018</t>
+          <t>Sample_0017</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -568,7 +568,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sample_0022</t>
+          <t>Sample_0020</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sample_0024</t>
+          <t>Sample_0023</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -600,11 +600,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sample_0025</t>
+          <t>Sample_0024</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -616,11 +616,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sample_0025</t>
+          <t>Sample_0024</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -632,11 +632,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sample_0027</t>
+          <t>Sample_0026</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -696,11 +696,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sample_0035</t>
+          <t>Sample_0038</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sample_0039</t>
+          <t>Sample_0040</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -744,7 +744,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sample_0045</t>
+          <t>Sample_0047</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -760,7 +760,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sample_0062</t>
+          <t>Sample_0053</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sample_0062</t>
+          <t>Sample_0057</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -792,11 +792,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sample_0074</t>
+          <t>Sample_0057</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -808,11 +808,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sample_0074</t>
+          <t>Sample_0062</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sample_0086</t>
+          <t>Sample_0062</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sample_0087</t>
+          <t>Sample_0085</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sample_0094</t>
+          <t>Sample_0086</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sample_0095</t>
+          <t>Sample_0087</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -888,14 +888,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sample_0099</t>
+          <t>Sample_0093</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -904,7 +904,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sample_0100</t>
+          <t>Sample_0095</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -920,11 +920,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sample_0101</t>
+          <t>Sample_0097</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -936,14 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sample_0101</t>
+          <t>Sample_0099</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -952,14 +952,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sample_0108</t>
+          <t>Sample_0100</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -968,7 +968,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sample_0109</t>
+          <t>Sample_0106</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sample_0109</t>
+          <t>Sample_0108</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sample_0111</t>
+          <t>Sample_0108</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sample_0115</t>
+          <t>Sample_0111</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sample_0115</t>
+          <t>Sample_0112</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sample_0117</t>
+          <t>Sample_0116</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sample_0119</t>
+          <t>Sample_0118</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sample_0126</t>
+          <t>Sample_0123</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sample_0128</t>
+          <t>Sample_0126</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sample_0004</t>
+          <t>Sample_0009</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sample_0014</t>
+          <t>Sample_0013</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sample_0016</t>
+          <t>Sample_0015</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sample_0018</t>
+          <t>Sample_0016</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sample_0018</t>
+          <t>Sample_0020</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1272,11 +1272,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sample_0022</t>
+          <t>Sample_0023</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sample_0025</t>
+          <t>Sample_0024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sample_0025</t>
+          <t>Sample_0026</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1336,14 +1336,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sample_0027</t>
+          <t>Sample_0032</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sample_0032</t>
+          <t>Sample_0033</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sample_0033</t>
+          <t>Sample_0034</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sample_0034</t>
+          <t>Sample_0038</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1400,14 +1400,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sample_0035</t>
+          <t>Sample_0040</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sample_0039</t>
+          <t>Sample_0044</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sample_0044</t>
+          <t>Sample_0047</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sample_0045</t>
+          <t>Sample_0053</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sample_0062</t>
+          <t>Sample_0057</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sample_0062</t>
+          <t>Sample_0057</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sample_0074</t>
+          <t>Sample_0062</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sample_0074</t>
+          <t>Sample_0062</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sample_0086</t>
+          <t>Sample_0085</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sample_0087</t>
+          <t>Sample_0086</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sample_0094</t>
+          <t>Sample_0087</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1576,14 +1576,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sample_0095</t>
+          <t>Sample_0093</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sample_0099</t>
+          <t>Sample_0095</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1608,14 +1608,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sample_0100</t>
+          <t>Sample_0097</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1624,14 +1624,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sample_0101</t>
+          <t>Sample_0099</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sample_0101</t>
+          <t>Sample_0100</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sample_0108</t>
+          <t>Sample_0106</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sample_0109</t>
+          <t>Sample_0108</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sample_0109</t>
+          <t>Sample_0108</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1720,11 +1720,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sample_0115</t>
+          <t>Sample_0112</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sample_0115</t>
+          <t>Sample_0116</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sample_0117</t>
+          <t>Sample_0118</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sample_0119</t>
+          <t>Sample_0122</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sample_0122</t>
+          <t>Sample_0123</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sample_0128</t>
+          <t>Sample_0217</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sample_0217</t>
+          <t>Sample_0219</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sample_0222</t>
+          <t>Sample_0221</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sample_0231</t>
+          <t>Sample_0227</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sample_0234</t>
+          <t>Sample_0229</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sample_0235</t>
+          <t>Sample_0230</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sample_0239</t>
+          <t>Sample_0234</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sample_0241</t>
+          <t>Sample_0246</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sample_0246</t>
+          <t>Sample_0247</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2040,13 +2040,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sample_0247</t>
+          <t>Sample_0248</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>1</v>
       </c>
       <c r="D101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Sample_0251</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
         <v>1</v>
       </c>
     </row>

--- a/models/model_logistic_regression_v2/predicted_vs_orgiginal_labels.xlsx
+++ b/models/model_logistic_regression_v2/predicted_vs_orgiginal_labels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sample_0009</t>
+          <t>Sample_0012</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -472,11 +472,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sample_0012</t>
+          <t>Sample_0016</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sample_0013</t>
+          <t>Sample_0019</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -504,11 +504,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sample_0015</t>
+          <t>Sample_0023</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sample_0015</t>
+          <t>Sample_0024</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sample_0016</t>
+          <t>Sample_0026</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sample_0017</t>
+          <t>Sample_0027</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sample_0020</t>
+          <t>Sample_0035</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -584,14 +584,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sample_0023</t>
+          <t>Sample_0044</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -600,14 +600,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sample_0024</t>
+          <t>Sample_0045</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -616,11 +616,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sample_0024</t>
+          <t>Sample_0062</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -632,14 +632,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sample_0026</t>
+          <t>Sample_0089</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -648,14 +648,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sample_0032</t>
+          <t>Sample_0092</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -664,14 +664,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sample_0033</t>
+          <t>Sample_0106</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -680,14 +680,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sample_0034</t>
+          <t>Sample_0107</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -696,14 +696,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sample_0038</t>
+          <t>Sample_0111</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sample_0040</t>
+          <t>Sample_0118</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -728,7 +728,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sample_0044</t>
+          <t>Sample_0119</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -744,14 +744,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sample_0047</t>
+          <t>Sample_0120</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -760,14 +760,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sample_0053</t>
+          <t>Sample_0122</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -776,14 +776,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sample_0057</t>
+          <t>Sample_0123</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -792,7 +792,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sample_0057</t>
+          <t>Sample_0128</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -808,14 +808,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sample_0062</t>
+          <t>Sample_0133</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -824,11 +824,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sample_0062</t>
+          <t>Sample_0134</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sample_0085</t>
+          <t>Sample_0136</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -856,11 +856,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sample_0086</t>
+          <t>Sample_0140</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sample_0087</t>
+          <t>Sample_0143</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -888,11 +888,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sample_0093</t>
+          <t>Sample_0151</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sample_0095</t>
+          <t>Sample_0153</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sample_0097</t>
+          <t>Sample_0155</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -936,7 +936,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sample_0099</t>
+          <t>Sample_0171</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sample_0100</t>
+          <t>Sample_0172</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -968,11 +968,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sample_0106</t>
+          <t>Sample_0173</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sample_0108</t>
+          <t>Sample_0174</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sample_0108</t>
+          <t>Sample_0178</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1016,11 +1016,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sample_0111</t>
+          <t>Sample_0179</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sample_0112</t>
+          <t>Sample_0182</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sample_0116</t>
+          <t>Sample_0183</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sample_0117</t>
+          <t>Sample_0184</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sample_0118</t>
+          <t>Sample_0188</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sample_0122</t>
+          <t>Sample_0192</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sample_0123</t>
+          <t>Sample_0195</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sample_0126</t>
+          <t>Sample_0196</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sample_0128</t>
+          <t>Sample_0197</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sample_0009</t>
+          <t>Sample_0198</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sample_0012</t>
+          <t>Sample_0199</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sample_0013</t>
+          <t>Sample_0205</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sample_0015</t>
+          <t>Sample_0214</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sample_0015</t>
+          <t>Sample_0216</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sample_0016</t>
+          <t>Sample_0221</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sample_0020</t>
+          <t>Sample_0222</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sample_0023</t>
+          <t>Sample_0225</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sample_0024</t>
+          <t>Sample_0228</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sample_0024</t>
+          <t>Sample_0229</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sample_0026</t>
+          <t>Sample_0230</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sample_0032</t>
+          <t>Sample_0233</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sample_0033</t>
+          <t>Sample_0243</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sample_0034</t>
+          <t>Sample_0245</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1384,685 +1384,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sample_0038</t>
+          <t>Sample_0247</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Sample_0040</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Sample_0044</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Sample_0047</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Sample_0053</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Sample_0057</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Sample_0057</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Sample_0062</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Sample_0062</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Sample_0085</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Sample_0086</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Sample_0087</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Sample_0093</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Sample_0095</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Sample_0097</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Sample_0099</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Sample_0100</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Sample_0106</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Sample_0108</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Sample_0108</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Sample_0111</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Sample_0112</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Sample_0116</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Sample_0117</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Sample_0118</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Sample_0122</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Sample_0123</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Sample_0126</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Sample_0128</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Sample_0217</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Sample_0219</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Sample_0220</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Sample_0221</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Sample_0223</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Sample_0226</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Sample_0227</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Sample_0229</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Sample_0230</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Sample_0234</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Sample_0246</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Sample_0247</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Sample_0248</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Sample_0251</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
         <v>1</v>
       </c>
     </row>
